--- a/data/xlsx/2022-22.1.xlsx
+++ b/data/xlsx/2022-22.1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dnanto/GitHub/broomball/data/xlsx/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEC6D1BC-2721-4845-8F5C-66F4DE45843A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E4D90EA-A147-5F4E-B40F-33D8DC9FEC63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="21900" activeTab="2" xr2:uid="{53854211-716F-CB4B-9607-3FE35C601A32}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="21900" activeTab="4" xr2:uid="{53854211-716F-CB4B-9607-3FE35C601A32}"/>
   </bookViews>
   <sheets>
     <sheet name="team" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="77">
   <si>
     <t>team</t>
   </si>
@@ -222,18 +222,6 @@
     <t>yellow</t>
   </si>
   <si>
-    <t>A. Goldstein</t>
-  </si>
-  <si>
-    <t>DavidHorner</t>
-  </si>
-  <si>
-    <t>Yellow</t>
-  </si>
-  <si>
-    <t>Black</t>
-  </si>
-  <si>
     <t>18:21</t>
   </si>
   <si>
@@ -265,9 +253,6 @@
   </si>
   <si>
     <t>00:05</t>
-  </si>
-  <si>
-    <t>Dave Horner</t>
   </si>
   <si>
     <t>2022-08-09</t>
@@ -669,7 +654,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="B2" t="s">
         <v>58</v>
@@ -680,7 +665,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="B3" t="s">
         <v>59</v>
@@ -748,7 +733,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="B6" t="s">
         <v>13</v>
@@ -835,7 +820,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5530F2CA-58BA-1647-9796-54DDCCE91881}">
   <dimension ref="A1:L9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -880,7 +865,7 @@
         <v>59</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>34</v>
@@ -1125,7 +1110,7 @@
         <v>59</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>34</v>
@@ -1191,6 +1176,9 @@
       <c r="G5" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="H5" s="1" t="s">
+        <v>26</v>
+      </c>
       <c r="I5" s="1" t="s">
         <v>35</v>
       </c>
@@ -1221,11 +1209,14 @@
         <v>20</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>61</v>
+        <v>21</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="H6" s="1" t="s">
+        <v>26</v>
+      </c>
       <c r="I6" s="1" t="s">
         <v>35</v>
       </c>
@@ -1261,6 +1252,9 @@
       <c r="G7" s="1" t="s">
         <v>19</v>
       </c>
+      <c r="H7" s="1" t="s">
+        <v>26</v>
+      </c>
       <c r="I7" s="1" t="s">
         <v>35</v>
       </c>
@@ -1293,6 +1287,9 @@
       <c r="F8" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="H8" s="1" t="s">
+        <v>3</v>
+      </c>
       <c r="I8" s="1" t="s">
         <v>35</v>
       </c>
@@ -1328,6 +1325,9 @@
       <c r="G9" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="H9" s="1" t="s">
+        <v>3</v>
+      </c>
       <c r="I9" s="1" t="s">
         <v>35</v>
       </c>
@@ -1358,11 +1358,14 @@
         <v>18</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>60</v>
+        <v>17</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>19</v>
       </c>
+      <c r="H10" s="1" t="s">
+        <v>26</v>
+      </c>
       <c r="I10" s="1" t="s">
         <v>35</v>
       </c>
@@ -1398,6 +1401,9 @@
       <c r="G11" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="H11" s="1" t="s">
+        <v>3</v>
+      </c>
       <c r="I11" s="1" t="s">
         <v>35</v>
       </c>
@@ -1432,6 +1438,9 @@
       </c>
       <c r="G12" s="1" t="s">
         <v>28</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="I12" s="1" t="s">
         <v>35</v>
@@ -1455,7 +1464,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF3ED697-A701-8242-8D25-7887D5D5063E}">
   <dimension ref="A1:L15"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1502,7 +1511,7 @@
         <v>59</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>34</v>
@@ -1551,13 +1560,13 @@
         <v>38</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>7</v>
@@ -1568,6 +1577,9 @@
       <c r="G5" s="2" t="s">
         <v>13</v>
       </c>
+      <c r="H5" s="1" t="s">
+        <v>3</v>
+      </c>
       <c r="I5" s="1" t="s">
         <v>35</v>
       </c>
@@ -1586,13 +1598,13 @@
         <v>38</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>20</v>
@@ -1603,6 +1615,9 @@
       <c r="G6" s="2" t="s">
         <v>6</v>
       </c>
+      <c r="H6" s="1" t="s">
+        <v>26</v>
+      </c>
       <c r="I6" s="1" t="s">
         <v>35</v>
       </c>
@@ -1621,13 +1636,13 @@
         <v>38</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>62</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>66</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>8</v>
@@ -1636,6 +1651,9 @@
         <v>9</v>
       </c>
       <c r="G7" s="2"/>
+      <c r="H7" s="1" t="s">
+        <v>3</v>
+      </c>
       <c r="I7" s="1" t="s">
         <v>35</v>
       </c>
@@ -1654,13 +1672,13 @@
         <v>38</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>63</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>67</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>23</v>
@@ -1669,7 +1687,10 @@
         <v>5</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>75</v>
+        <v>21</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="I8" s="1" t="s">
         <v>35</v>
@@ -1689,13 +1710,13 @@
         <v>38</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>9</v>
@@ -1706,6 +1727,9 @@
       <c r="G9" s="2" t="s">
         <v>10</v>
       </c>
+      <c r="H9" s="1" t="s">
+        <v>3</v>
+      </c>
       <c r="I9" s="1" t="s">
         <v>35</v>
       </c>
@@ -1724,13 +1748,13 @@
         <v>38</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>23</v>
@@ -1741,6 +1765,9 @@
       <c r="G10" s="2" t="s">
         <v>21</v>
       </c>
+      <c r="H10" s="1" t="s">
+        <v>26</v>
+      </c>
       <c r="I10" s="1" t="s">
         <v>35</v>
       </c>
@@ -1759,13 +1786,13 @@
         <v>38</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>13</v>
@@ -1776,6 +1803,9 @@
       <c r="G11" s="2" t="s">
         <v>7</v>
       </c>
+      <c r="H11" s="1" t="s">
+        <v>3</v>
+      </c>
       <c r="I11" s="1" t="s">
         <v>35</v>
       </c>
@@ -1794,13 +1824,13 @@
         <v>38</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>17</v>
@@ -1809,6 +1839,9 @@
         <v>20</v>
       </c>
       <c r="G12" s="2"/>
+      <c r="H12" s="1" t="s">
+        <v>26</v>
+      </c>
       <c r="I12" s="1" t="s">
         <v>35</v>
       </c>
@@ -1827,13 +1860,13 @@
         <v>38</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>8</v>
@@ -1844,6 +1877,9 @@
       <c r="G13" s="2" t="s">
         <v>15</v>
       </c>
+      <c r="H13" s="1" t="s">
+        <v>3</v>
+      </c>
       <c r="I13" s="1" t="s">
         <v>35</v>
       </c>
@@ -1862,13 +1898,13 @@
         <v>38</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>10</v>
@@ -1879,6 +1915,9 @@
       <c r="G14" s="2" t="s">
         <v>15</v>
       </c>
+      <c r="H14" s="1" t="s">
+        <v>3</v>
+      </c>
       <c r="I14" s="1" t="s">
         <v>35</v>
       </c>
@@ -1897,13 +1936,13 @@
         <v>38</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>16</v>
@@ -1912,6 +1951,9 @@
         <v>13</v>
       </c>
       <c r="G15" s="2"/>
+      <c r="H15" s="1" t="s">
+        <v>3</v>
+      </c>
       <c r="I15" s="1" t="s">
         <v>35</v>
       </c>

--- a/data/xlsx/2022-22.1.xlsx
+++ b/data/xlsx/2022-22.1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dnanto/GitHub/broomball/data/xlsx/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E4D90EA-A147-5F4E-B40F-33D8DC9FEC63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF03D54B-6B54-9F4E-9B57-AAE22E4319C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="21900" activeTab="4" xr2:uid="{53854211-716F-CB4B-9607-3FE35C601A32}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="21900" activeTab="1" xr2:uid="{53854211-716F-CB4B-9607-3FE35C601A32}"/>
   </bookViews>
   <sheets>
     <sheet name="team" sheetId="1" r:id="rId1"/>
@@ -261,9 +261,6 @@
     <t>2022-08-16</t>
   </si>
   <si>
-    <t>Billy Oehlschlager</t>
-  </si>
-  <si>
     <t>GoldSchlager Shots</t>
   </si>
   <si>
@@ -271,6 +268,9 @@
   </si>
   <si>
     <t>2022-08-02</t>
+  </si>
+  <si>
+    <t>Bill Oehlschlager</t>
   </si>
 </sst>
 </file>
@@ -654,7 +654,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B2" t="s">
         <v>58</v>
@@ -665,7 +665,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B3" t="s">
         <v>59</v>
@@ -683,7 +683,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1E305F7-36DC-3C43-A786-050EBBBE318F}">
   <dimension ref="A1:B15"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -733,7 +735,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B6" t="s">
         <v>13</v>
@@ -865,7 +867,7 @@
         <v>59</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>34</v>
@@ -1464,7 +1466,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF3ED697-A701-8242-8D25-7887D5D5063E}">
   <dimension ref="A1:L15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>

--- a/data/xlsx/2022-22.1.xlsx
+++ b/data/xlsx/2022-22.1.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11207"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dnanto/GitHub/broomball/data/xlsx/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF03D54B-6B54-9F4E-9B57-AAE22E4319C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEC4B03A-870A-F149-9991-6410F7C88EB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="21900" activeTab="1" xr2:uid="{53854211-716F-CB4B-9607-3FE35C601A32}"/>
   </bookViews>
@@ -189,9 +189,6 @@
     <t>0</t>
   </si>
   <si>
-    <t>Katy Bright</t>
-  </si>
-  <si>
     <t>19:32</t>
   </si>
   <si>
@@ -271,6 +268,9 @@
   </si>
   <si>
     <t>Bill Oehlschlager</t>
+  </si>
+  <si>
+    <t>Katy Meyvn</t>
   </si>
 </sst>
 </file>
@@ -654,10 +654,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C2" t="s">
         <v>3</v>
@@ -665,10 +665,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C3" t="s">
         <v>4</v>
@@ -684,7 +684,7 @@
   <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -695,10 +695,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1" t="s">
         <v>58</v>
-      </c>
-      <c r="B1" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -735,7 +735,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B6" t="s">
         <v>13</v>
@@ -791,7 +791,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>49</v>
+        <v>76</v>
       </c>
       <c r="B13" t="s">
         <v>10</v>
@@ -861,13 +861,13 @@
         <v>29</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>59</v>
-      </c>
       <c r="D2" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>34</v>
@@ -916,7 +916,7 @@
         <v>38</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>35</v>
@@ -945,7 +945,7 @@
         <v>38</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>35</v>
@@ -974,7 +974,7 @@
         <v>38</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>35</v>
@@ -1003,7 +1003,7 @@
         <v>38</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>36</v>
@@ -1032,7 +1032,7 @@
         <v>38</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>36</v>
@@ -1106,13 +1106,13 @@
         <v>29</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>59</v>
-      </c>
       <c r="D2" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>34</v>
@@ -1161,13 +1161,13 @@
         <v>38</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>19</v>
@@ -1199,13 +1199,13 @@
         <v>38</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>20</v>
@@ -1237,13 +1237,13 @@
         <v>38</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>17</v>
@@ -1275,13 +1275,13 @@
         <v>38</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>8</v>
@@ -1310,13 +1310,13 @@
         <v>38</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>16</v>
@@ -1348,13 +1348,13 @@
         <v>38</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>18</v>
@@ -1386,13 +1386,13 @@
         <v>38</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>9</v>
@@ -1424,13 +1424,13 @@
         <v>38</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>6</v>
@@ -1507,13 +1507,13 @@
         <v>29</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>59</v>
-      </c>
       <c r="D2" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>34</v>
@@ -1562,13 +1562,13 @@
         <v>38</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>59</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>60</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>7</v>
@@ -1600,13 +1600,13 @@
         <v>38</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>20</v>
@@ -1638,13 +1638,13 @@
         <v>38</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>8</v>
@@ -1674,13 +1674,13 @@
         <v>38</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>23</v>
@@ -1712,13 +1712,13 @@
         <v>38</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>9</v>
@@ -1750,13 +1750,13 @@
         <v>38</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>23</v>
@@ -1788,13 +1788,13 @@
         <v>38</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>13</v>
@@ -1826,13 +1826,13 @@
         <v>38</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>17</v>
@@ -1862,13 +1862,13 @@
         <v>38</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>8</v>
@@ -1900,13 +1900,13 @@
         <v>38</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>10</v>
@@ -1938,13 +1938,13 @@
         <v>38</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>16</v>

--- a/data/xlsx/2022-22.1.xlsx
+++ b/data/xlsx/2022-22.1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dnanto/GitHub/broomball/data/xlsx/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEC4B03A-870A-F149-9991-6410F7C88EB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85CF18BE-8F5D-5C41-893A-4F8C637F893C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="21900" activeTab="1" xr2:uid="{53854211-716F-CB4B-9607-3FE35C601A32}"/>
   </bookViews>
@@ -683,9 +683,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1E305F7-36DC-3C43-A786-050EBBBE318F}">
   <dimension ref="A1:B15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
